--- a/Kalkulator rezystancji.xlsx
+++ b/Kalkulator rezystancji.xlsx
@@ -1,35 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11292" windowHeight="5580"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>napiecie zasilania</t>
-  </si>
-  <si>
-    <t>ilosc diod</t>
-  </si>
-  <si>
-    <t>napiecie diody</t>
-  </si>
-  <si>
-    <t>prąd diody</t>
-  </si>
-  <si>
     <t>RC</t>
   </si>
   <si>
@@ -42,18 +30,127 @@
     <t>P(RB)</t>
   </si>
   <si>
-    <t>wzmocnienie tranzystora</t>
-  </si>
-  <si>
     <t>UWAGA!!! KAŻDA DIODA POWINNA MIEĆ SWÓJ WŁASNY REZYSTOR (RC) OGRANICZAJĄCY PRĄD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vcc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>napiecie zasilania</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prąd wszystkich diód (suma)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> napiecie diody/diód szeregowych</t>
+    </r>
+  </si>
+  <si>
+    <t>Ilosc diod równoległych</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hfe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Wzmocnienie tranzystora</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,16 +175,36 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,17 +212,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -113,6 +256,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -127,13 +278,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -204,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -445,21 +638,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="2.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32.4" customHeight="1">
+    <row r="1" spans="1:20" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -481,80 +679,80 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
+      <c r="B9" s="5">
+        <f>(B3-B5)/((B6/1000)*B4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B10" s="5">
+        <f>(B3-B5)*((B6*B4)/1000)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
+      <c r="B12" s="4">
+        <f>(4.2-0.7)/((B6*B4)/1000/B7)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <f>(B3-B5)/((B6/1000)*B4)</f>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <f>(B3-B5)*((B6*B4)/1000)</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <f>(4.2-0.7)/((B6*B4)/1000/B7)</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <f>(4.2-0.7)*((B6*B4)/1000/B7)</f>
-        <v>3.5000000000000001E-3</v>
+        <v>1.7500000000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -568,12 +766,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -581,12 +779,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Kalkulator rezystancji.xlsx
+++ b/Kalkulator rezystancji.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11292" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -139,8 +139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,12 +233,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +243,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -287,7 +287,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -361,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,27 +393,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,24 +427,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -638,121 +602,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="2.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="37.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="32.4" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <f>(B3-B5)/((B6/1000)*B4)</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <f>(B3-B5)*((B6*B4)/1000)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <f>(4.2-0.7)/((B6*B4)/1000/B7)</f>
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5">
-        <f>(B3-B5)/((B6/1000)*B4)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
-        <f>(B3-B5)*((B6*B4)/1000)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4">
-        <f>(4.2-0.7)/((B6*B4)/1000/B7)</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f>(4.2-0.7)*((B6*B4)/1000/B7)</f>
-        <v>1.7500000000000002E-2</v>
+        <v>2.8E-3</v>
       </c>
     </row>
   </sheetData>
@@ -766,12 +730,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -779,12 +743,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Kalkulator rezystancji.xlsx
+++ b/Kalkulator rezystancji.xlsx
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +176,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -240,15 +249,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -680,42 +689,42 @@
       <c r="T1" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
-        <v>5</v>
+      <c r="B4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
-        <v>100</v>
+      <c r="B6" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>100</v>
       </c>
     </row>
@@ -723,36 +732,36 @@
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <f>(B3-B5)/((B6/1000)*B4)</f>
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <f>(B3-B5)*((B6*B4)/1000)</f>
-        <v>3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <f>(4.2-0.7)/((B6*B4)/1000/B7)</f>
-        <v>700</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <f>(4.2-0.7)*((B6*B4)/1000/B7)</f>
-        <v>1.7500000000000002E-2</v>
+        <v>1.4E-3</v>
       </c>
     </row>
   </sheetData>
